--- a/www.eia.gov/forecasts/steo/xls/Fig11.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig11.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Surplus</t>
@@ -50,7 +50,7 @@
     <t>(Million bbls per day)</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -124,7 +124,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -150,6 +150,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -298,6 +299,9 @@
                 <c:pt idx="13">
                   <c:v>2018</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -308,46 +312,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2613268691272728</c:v>
+                  <c:v>2.290090573718182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.290090573718182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,8 +368,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446167664"/>
-        <c:axId val="446168224"/>
+        <c:axId val="305430480"/>
+        <c:axId val="305431040"/>
       </c:areaChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -428,6 +435,9 @@
                 <c:pt idx="13">
                   <c:v>2018</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -438,28 +448,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="1">
-                  <c:v>1.4677147728</c:v>
+                  <c:v>1.4491232877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1071494646</c:v>
+                  <c:v>2.0908904110000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.403860009</c:v>
+                  <c:v>1.3971859712000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7970625840999999</c:v>
+                  <c:v>3.7938767950000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.9796438959999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0465753806999998</c:v>
+                  <c:v>3.2930137367999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1221857922999998</c:v>
+                  <c:v>2.2404644809000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1571123386000002</c:v>
+                  <c:v>2.1553424755999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.0732191962000002</c:v>
@@ -468,13 +478,13 @@
                   <c:v>1.4588781369999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2611939890999999</c:v>
+                  <c:v>1.2593579235000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2602465753000001</c:v>
+                  <c:v>1.6908027397000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1575342466</c:v>
+                  <c:v>1.2071232877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,8 +499,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="446167664"/>
-        <c:axId val="446168224"/>
+        <c:axId val="305430480"/>
+        <c:axId val="305431040"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -552,13 +562,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446168784"/>
-        <c:axId val="446169344"/>
+        <c:axId val="305431600"/>
+        <c:axId val="305432160"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="446167664"/>
+        <c:axId val="305430480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2018"/>
+          <c:min val="2006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,14 +585,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446168224"/>
+        <c:crossAx val="305431040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446168224"/>
+        <c:axId val="305431040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -608,12 +620,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446167664"/>
+        <c:crossAx val="305430480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446168784"/>
+        <c:axId val="305431600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13"/>
@@ -630,13 +642,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446169344"/>
+        <c:crossAx val="305432160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446169344"/>
+        <c:axId val="305432160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -653,7 +665,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446168784"/>
+        <c:crossAx val="305431600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -769,7 +781,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -814,7 +826,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Note: Shaded area represents 2006-2016 average (0 million barrels per day).</a:t>
+            <a:t>Note: Shaded area represents 2006-2016 average (2.3 million barrels per day).</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -958,7 +970,7 @@
             <v>2005</v>
           </cell>
           <cell r="D28">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="29">
@@ -966,10 +978,10 @@
             <v>2006</v>
           </cell>
           <cell r="C29">
-            <v>1.4677147728</v>
+            <v>1.4491232877</v>
           </cell>
           <cell r="D29">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="30">
@@ -977,10 +989,10 @@
             <v>2007</v>
           </cell>
           <cell r="C30">
-            <v>2.1071494646</v>
+            <v>2.0908904110000002</v>
           </cell>
           <cell r="D30">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="31">
@@ -988,10 +1000,10 @@
             <v>2008</v>
           </cell>
           <cell r="C31">
-            <v>1.403860009</v>
+            <v>1.3971859712000001</v>
           </cell>
           <cell r="D31">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="32">
@@ -999,10 +1011,10 @@
             <v>2009</v>
           </cell>
           <cell r="C32">
-            <v>3.7970625840999999</v>
+            <v>3.7938767950000001</v>
           </cell>
           <cell r="D32">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="33">
@@ -1013,7 +1025,7 @@
             <v>3.9796438959999998</v>
           </cell>
           <cell r="D33">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="34">
@@ -1021,10 +1033,10 @@
             <v>2011</v>
           </cell>
           <cell r="C34">
-            <v>3.0465753806999998</v>
+            <v>3.2930137367999999</v>
           </cell>
           <cell r="D34">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="35">
@@ -1032,10 +1044,10 @@
             <v>2012</v>
           </cell>
           <cell r="C35">
-            <v>2.1221857922999998</v>
+            <v>2.2404644809000001</v>
           </cell>
           <cell r="D35">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="36">
@@ -1043,10 +1055,10 @@
             <v>2013</v>
           </cell>
           <cell r="C36">
-            <v>2.1571123386000002</v>
+            <v>2.1553424755999999</v>
           </cell>
           <cell r="D36">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="37">
@@ -1057,7 +1069,7 @@
             <v>2.0732191962000002</v>
           </cell>
           <cell r="D37">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="38">
@@ -1068,7 +1080,7 @@
             <v>1.4588781369999999</v>
           </cell>
           <cell r="D38">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="39">
@@ -1076,10 +1088,10 @@
             <v>2016</v>
           </cell>
           <cell r="C39">
-            <v>1.2611939890999999</v>
+            <v>1.2593579235000001</v>
           </cell>
           <cell r="D39">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="40">
@@ -1087,10 +1099,10 @@
             <v>2017</v>
           </cell>
           <cell r="C40">
-            <v>1.2602465753000001</v>
+            <v>1.6908027397000001</v>
           </cell>
           <cell r="D40">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="41">
@@ -1098,10 +1110,18 @@
             <v>2018</v>
           </cell>
           <cell r="C41">
-            <v>1.1575342466</v>
+            <v>1.2071232877</v>
           </cell>
           <cell r="D41">
-            <v>2.2613268691272728</v>
+            <v>2.290090573718182</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>2019</v>
+          </cell>
+          <cell r="D42">
+            <v>2.290090573718182</v>
           </cell>
         </row>
         <row r="46">
@@ -1469,7 +1489,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="2">
         <f>AVERAGE($C$29:$C$39)</f>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -1477,11 +1497,11 @@
         <v>2006</v>
       </c>
       <c r="C29" s="12">
-        <v>1.4677147728</v>
+        <v>1.4491232877</v>
       </c>
       <c r="D29" s="2">
         <f>AVERAGE($C$29:$C$39)</f>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -1489,11 +1509,11 @@
         <v>2007</v>
       </c>
       <c r="C30" s="12">
-        <v>2.1071494646</v>
+        <v>2.0908904110000002</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:D41" si="0">AVERAGE($C$29:$C$39)</f>
-        <v>2.2613268691272728</v>
+        <f t="shared" ref="D30:D42" si="0">AVERAGE($C$29:$C$39)</f>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -1501,11 +1521,11 @@
         <v>2008</v>
       </c>
       <c r="C31" s="12">
-        <v>1.403860009</v>
+        <v>1.3971859712000001</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -1513,11 +1533,11 @@
         <v>2009</v>
       </c>
       <c r="C32" s="12">
-        <v>3.7970625840999999</v>
+        <v>3.7938767950000001</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -1529,7 +1549,7 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -1537,11 +1557,11 @@
         <v>2011</v>
       </c>
       <c r="C34" s="12">
-        <v>3.0465753806999998</v>
+        <v>3.2930137367999999</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1549,11 +1569,11 @@
         <v>2012</v>
       </c>
       <c r="C35" s="12">
-        <v>2.1221857922999998</v>
+        <v>2.2404644809000001</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -1561,11 +1581,11 @@
         <v>2013</v>
       </c>
       <c r="C36" s="12">
-        <v>2.1571123386000002</v>
+        <v>2.1553424755999999</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -1577,7 +1597,7 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1589,7 +1609,7 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -1597,11 +1617,11 @@
         <v>2016</v>
       </c>
       <c r="C39" s="12">
-        <v>1.2611939890999999</v>
+        <v>1.2593579235000001</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -1609,11 +1629,11 @@
         <v>2017</v>
       </c>
       <c r="C40" s="12">
-        <v>1.2602465753000001</v>
+        <v>1.6908027397000001</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1621,17 +1641,23 @@
         <v>2018</v>
       </c>
       <c r="C41" s="12">
-        <v>1.1575342466</v>
+        <v>1.2071232877</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>2.2613268691272728</v>
+        <v>2.290090573718182</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="9">
+        <f>B41+1</f>
+        <v>2019</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14">
+        <f t="shared" si="0"/>
+        <v>2.290090573718182</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
@@ -1641,7 +1667,7 @@
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="str">
         <f>"Note: Shaded area represents "&amp;$D$26&amp;" ("&amp;ROUND($D$42,1)&amp;" million barrels per day)."</f>
-        <v>Note: Shaded area represents 2006-2016 average (0 million barrels per day).</v>
+        <v>Note: Shaded area represents 2006-2016 average (2.3 million barrels per day).</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -1649,7 +1675,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>7</v>
       </c>
     </row>
